--- a/Numbers-2023/external/DiskResources-2021-2022-2023-Detail.xlsx
+++ b/Numbers-2023/external/DiskResources-2021-2022-2023-Detail.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/schellma/Dropbox/DUNE-computing/CCB-data/Numbers-2023/external/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42987A89-473B-8142-A81F-E8AC66DB9DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3BB6A-55BD-C946-A4EC-2979540DB985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="2480" windowWidth="10700" windowHeight="16940"/>
+    <workbookView xWindow="9240" yWindow="1260" windowWidth="21740" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiskResources-2021-2022-2023-De" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t xml:space="preserve">Pledge (PB)  </t>
   </si>
@@ -92,12 +105,18 @@
   </si>
   <si>
     <t>National</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Modified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -939,16 +958,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1">
         <v>2021</v>
       </c>
@@ -967,8 +986,11 @@
       <c r="G1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -985,348 +1007,374 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
         <v>0.05</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F5" s="1">
         <v>0.05</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>0.2</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.51</v>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.72</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01</v>
+        <v>0.51</v>
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>0.5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
         <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.75</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
         <v>0.75</v>
       </c>
-      <c r="E9" s="1">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.1</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B12" s="1">
         <v>1.9</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="E12" s="1">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="F12" s="1">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
         <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3.83</v>
-      </c>
-      <c r="F13" s="1">
-        <v>3.12</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.5</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="F14" s="1">
+        <v>3.12</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1">
         <v>0.5</v>
       </c>
-      <c r="E14" s="1">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F15" s="1">
         <v>0.5</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
-        <f>SUM(B3:B15)</f>
+      <c r="B18" s="1">
+        <f>SUM(B4:B16)</f>
         <v>8.65</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:F17" si="0">SUM(C3:C15)</f>
+      <c r="C18" s="1">
+        <f t="shared" ref="C18:F18" si="0">SUM(C4:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
         <v>10.07</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>9.73</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>5.24</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <v>15.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="H18" s="1">
+        <f>H21-H19-H20</f>
+        <v>12.942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>21</v>
       </c>
       <c r="B19" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H19" s="1">
+        <f>E19</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>7.6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <f>8.858</f>
         <v>8.8580000000000005</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>8.85</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="H20" s="1">
+        <f>E20</f>
+        <v>8.8580000000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="1">
-        <f>SUM(B17:B19)</f>
+      <c r="B21" s="1">
+        <f>SUM(B18:B20)</f>
         <v>13.05</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:F20" si="1">SUM(C17:C19)</f>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:G21" si="1">SUM(C18:C20)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>20.67</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="1"/>
         <v>22.588000000000001</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="1"/>
         <v>16.59</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="H21" s="1">
+        <f>G21</f>
         <v>25.8</v>
       </c>
     </row>
